--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/endpointType</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/endpointType</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/EndpointTypeVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/EndpointTypeVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -730,7 +730,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.67578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.45703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/endpointType</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/endpointType</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/EndpointTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/EndpointTypeVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -730,7 +730,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/endpointType</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/endpointType</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/EndpointTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/EndpointTypeVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
